--- a/Master Datasheets/User Study Data.xlsx
+++ b/Master Datasheets/User Study Data.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="Questionnaire - Analysis" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="Experiment Data - Analysis" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="Experiment Data - Graphs" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Sheet1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="89">
-  <si>
-    <t>Participant</t>
-  </si>
-  <si>
-    <t>Starting Clicking Method</t>
-  </si>
-  <si>
-    <t>Starting Control Method</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="92">
   <si>
     <t>Participant ID</t>
   </si>
@@ -47,16 +39,16 @@
     <t>Error Count</t>
   </si>
   <si>
-    <t>Q1 I find it intuitive to point and click by tilting the device</t>
+    <t>Participant</t>
   </si>
   <si>
-    <t>Position</t>
+    <t>Starting Clicking Method</t>
   </si>
   <si>
-    <t>Floating Button</t>
+    <t>Starting Control Method</t>
   </si>
   <si>
-    <t>Bezel Swiping</t>
+    <t>Q1 I find it intuitive to point and click by tilting the device</t>
   </si>
   <si>
     <t>Q2 I find it intuitive to control the pointer with the Position Control</t>
@@ -99,6 +91,15 @@
   </si>
   <si>
     <t>Q9 Which clicking method would you prefer over direct touch? (may select multiple or none)</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Floating Button</t>
+  </si>
+  <si>
+    <t>Bezel Swiping</t>
   </si>
   <si>
     <t>Back Tapping</t>
@@ -263,6 +264,15 @@
     <t>Post Hoc Comparisons - Clicking Method (Error Count)</t>
   </si>
   <si>
+    <t>Descriptives Table Formatted to use for Graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Boxplot was created using JASP</t>
+  </si>
+  <si>
     <t>Position-control</t>
   </si>
   <si>
@@ -275,13 +285,13 @@
     <t>Back Tap</t>
   </si>
   <si>
-    <t>Descriptives Table Formatted to use for Graphs</t>
+    <t>Satisfaction</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Ease of Learning</t>
   </si>
   <si>
-    <t>Boxplot was created using JASP</t>
+    <t>One-Handed Usage</t>
   </si>
 </sst>
 </file>
@@ -291,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -299,10 +309,10 @@
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -370,11 +380,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -390,6 +395,16 @@
       <sz val="10.0"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,24 +445,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -456,10 +471,10 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -539,43 +554,46 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,11 +664,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1360520474"/>
-        <c:axId val="419870661"/>
+        <c:axId val="242790758"/>
+        <c:axId val="234516650"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1360520474"/>
+        <c:axId val="242790758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419870661"/>
+        <c:crossAx val="234516650"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419870661"/>
+        <c:axId val="234516650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -735,7 +753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360520474"/>
+        <c:crossAx val="242790758"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -804,11 +822,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1953174454"/>
-        <c:axId val="206901060"/>
+        <c:axId val="2094849225"/>
+        <c:axId val="1081657919"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1953174454"/>
+        <c:axId val="2094849225"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,10 +858,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206901060"/>
+        <c:crossAx val="1081657919"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206901060"/>
+        <c:axId val="1081657919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -893,7 +911,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953174454"/>
+        <c:crossAx val="2094849225"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -962,11 +980,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1471883459"/>
-        <c:axId val="1655537898"/>
+        <c:axId val="993741863"/>
+        <c:axId val="529188231"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1471883459"/>
+        <c:axId val="993741863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,10 +1016,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655537898"/>
+        <c:crossAx val="529188231"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1655537898"/>
+        <c:axId val="529188231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1051,7 +1069,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1471883459"/>
+        <c:crossAx val="993741863"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1120,11 +1138,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="837852123"/>
-        <c:axId val="1720628741"/>
+        <c:axId val="1761371749"/>
+        <c:axId val="2051042124"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="837852123"/>
+        <c:axId val="1761371749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,10 +1174,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720628741"/>
+        <c:crossAx val="2051042124"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1720628741"/>
+        <c:axId val="2051042124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1209,7 +1227,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837852123"/>
+        <c:crossAx val="1761371749"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1227,15 +1245,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>Time Taken vs Clicking Method</a:t>
+              <a:t>Satisfaction, Ease of Learning and One-Handed Usage vs Clicking Method</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1250,9 +1263,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Questionnaire - Analysis'!$Q$15</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C00000"/>
+              <a:srgbClr val="3366CC"/>
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
@@ -1261,11 +1279,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                  </a:defRPr>
+                  <a:defRPr b="0" i="0"/>
                 </a:pPr>
               </a:p>
             </c:txPr>
@@ -1278,21 +1292,26 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Experiment Data - Graphs'!$C$8:$C$11</c:f>
+              <c:f>'Questionnaire - Analysis'!$P$16:$P$18</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Experiment Data - Graphs'!$E$4:$E$6</c:f>
+              <c:f>'Questionnaire - Analysis'!$Q$16:$Q$18</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Questionnaire - Analysis'!$R$15</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0070C0"/>
+              <a:srgbClr val="DC3912"/>
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
@@ -1301,11 +1320,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                  </a:defRPr>
+                  <a:defRPr b="0" i="0"/>
                 </a:pPr>
               </a:p>
             </c:txPr>
@@ -1318,21 +1333,26 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Experiment Data - Graphs'!$C$8:$C$11</c:f>
+              <c:f>'Questionnaire - Analysis'!$P$16:$P$18</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Experiment Data - Graphs'!$E$8:$E$10</c:f>
+              <c:f>'Questionnaire - Analysis'!$R$16:$R$18</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Questionnaire - Analysis'!$S$15</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:srgbClr val="FF9900"/>
             </a:solidFill>
           </c:spPr>
           <c:dLbls>
@@ -1341,11 +1361,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                  </a:defRPr>
+                  <a:defRPr b="0" i="0"/>
                 </a:pPr>
               </a:p>
             </c:txPr>
@@ -1358,60 +1374,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Experiment Data - Graphs'!$C$8:$C$11</c:f>
+              <c:f>'Questionnaire - Analysis'!$P$16:$P$18</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Experiment Data - Graphs'!$E$12:$E$14</c:f>
+              <c:f>'Questionnaire - Analysis'!$S$16:$S$18</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="548235"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="900">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Experiment Data - Graphs'!$C$8:$C$11</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Experiment Data - Graphs'!$E$16:$E$19</c:f>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1404313257"/>
-        <c:axId val="1532009103"/>
+        <c:axId val="309632126"/>
+        <c:axId val="42425622"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1404313257"/>
+        <c:axId val="309632126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,12 +1400,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Clicking Method</a:t>
@@ -1444,21 +1415,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1532009103"/>
+        <c:crossAx val="42425622"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1532009103"/>
+        <c:axId val="42425622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+          <c:min val="-2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1466,7 +1434,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1478,15 +1446,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" sz="1000">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Time Taken (s)</a:t>
+                  <a:t>Average Score</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1505,48 +1468,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1404313257"/>
+        <c:crossAx val="309632126"/>
       </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="900">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-  </c:spPr>
 </c:chartSpace>
 </file>
 
@@ -1700,11 +1634,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="354042634"/>
-        <c:axId val="1888804084"/>
+        <c:axId val="263305139"/>
+        <c:axId val="1944714550"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="354042634"/>
+        <c:axId val="263305139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,10 +1680,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888804084"/>
+        <c:crossAx val="1944714550"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888804084"/>
+        <c:axId val="1944714550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354042634"/>
+        <c:crossAx val="263305139"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1824,6 +1758,632 @@
         <a:p>
           <a:pPr lvl="0">
             <a:defRPr sz="900">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Time Taken vs Clicking Method</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$C$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$C$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$E$10</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$C$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$12:$E$14</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="548235"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$C$11</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$19</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="81865129"/>
+        <c:axId val="1589768592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="81865129"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Clicking Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589768592"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1589768592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time Taken (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81865129"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Error Count vs Clicking Method</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$28</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$E$32</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$36</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1011490566"/>
+        <c:axId val="1276829237"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1011490566"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Clicking Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276829237"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1276829237"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" sz="1400">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Error Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011490566"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1200">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1888,7 +2448,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1938,7 +2498,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1948,6 +2508,31 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1966,13 +2551,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5695950" cy="4667250"/>
+    <xdr:ext cx="5695950" cy="4524375"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1989,31 +2574,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5695950" cy="4524375"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>54</xdr:row>
@@ -2022,11 +2582,11 @@
     <xdr:ext cx="2686050" cy="3267075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2050,11 +2610,67 @@
     <xdr:ext cx="2428875" cy="3371850"/>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2686050" cy="3267075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2686050" cy="3267075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2071,6 +2687,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5829300" cy="4724400"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6067425" cy="4705350"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -2082,1652 +2753,1652 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>25.0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4">
         <v>17.65</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>25.0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
         <v>18.882</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>25.0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>24.304</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>180.0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
         <v>33.438</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1.0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>180.0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4">
         <v>27.508</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>1.0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>180.0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>23.518</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>7.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1.0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0.0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>6.725</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2.0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>50.0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
         <v>17.877</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>2.0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>50.0</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>28.183</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>2.0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>50.0</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4">
         <v>13.489</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>2.0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>130.0</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4">
         <v>16.65</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2.0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>130.0</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>14.553</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>2.0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>130.0</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4">
         <v>21.518</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>2.0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>0.0</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>5.27</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>3.0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>45.0</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>31.419</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>3.0</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>45.0</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4">
         <v>13.585</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>3.0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>45.0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4">
         <v>13.2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>3.0</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>120.0</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>20.001</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>3.0</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>120.0</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4">
         <v>14.736</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>3.0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>120.0</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4">
         <v>15.269</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>3.0</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>0.0</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>5.394</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>4.0</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>45.0</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4">
         <v>27.252</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>4.0</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>45.0</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="9">
         <v>28.885</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>12.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>4.0</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>45.0</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>28.055</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>4.0</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>110.0</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="4">
         <v>22.134</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>4.0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>110.0</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4">
         <v>18.615</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>4.0</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>110.0</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>14.634</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>4.0</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>0.0</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>2.518</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>5.0</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>25.0</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3">
+        <v>27</v>
+      </c>
+      <c r="F30" s="4">
         <v>18.216</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>5.0</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>25.0</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>31.955</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>7.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>5.0</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>25.0</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
+      <c r="D32" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3">
+        <v>26</v>
+      </c>
+      <c r="F32" s="4">
         <v>12.15</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>5.0</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>65.0</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3">
+        <v>27</v>
+      </c>
+      <c r="F33" s="4">
         <v>19.647</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>5.0</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>65.0</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>21.285</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>5.0</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>65.0</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="3">
+        <v>26</v>
+      </c>
+      <c r="F35" s="4">
         <v>19.097</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>5.0</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>0.0</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>2.503</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>6.0</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>150.0</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="4">
         <v>21.419</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>6.0</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>150.0</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="4">
         <v>23.598</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>6.0</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>150.0</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>29.568</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>6.0</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>30.0</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="D40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="4">
         <v>13.799</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>6.0</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>30.0</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="D41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="4">
         <v>16.682</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>6.0</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>30.0</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>25.747</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>6.0</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>0.0</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>9.221</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>7.0</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>150.0</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="4">
         <v>12.55</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>7.0</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>150.0</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>12.203</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>7.0</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>150.0</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="4">
         <v>13.933</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>7.0</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>25.0</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="4">
         <v>12.117</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>7.0</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>25.0</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>14.68</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>7.0</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>25.0</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="D49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="4">
         <v>15.649</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>7.0</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>0.0</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>4.261</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>8.0</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>145.0</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>17.816</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="4">
         <v>10.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>8.0</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>145.0</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="4">
         <v>23.276</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>8.0</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <v>145.0</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="4">
         <v>18.284</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>8.0</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>25.0</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>20.132</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="4">
         <v>7.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>8.0</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>25.0</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="D55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="4">
         <v>15.37</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>8.0</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>25.0</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="D56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="4">
         <v>12.001</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>8.0</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>0.0</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>3.902</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>9.0</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>135.0</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="4">
         <v>17.397</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>9.0</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>135.0</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="4">
         <v>19.53</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>9.0</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <v>135.0</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>17.853</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>9.0</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>35.0</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="D61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="4">
         <v>12.779</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>9.0</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>35.0</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="D62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="4">
         <v>14.696</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>9.0</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>35.0</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>20.967</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>9.0</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>0.0</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>4.751</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>10.0</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <v>150.0</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="3">
+        <v>27</v>
+      </c>
+      <c r="F65" s="4">
         <v>11.308</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>10.0</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>150.0</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>16.858</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="4">
         <v>9.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>10.0</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <v>150.0</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="3">
+        <v>26</v>
+      </c>
+      <c r="F67" s="4">
         <v>9.584</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>10.0</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <v>40.0</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>11</v>
+      <c r="D68" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="3">
+        <v>27</v>
+      </c>
+      <c r="F68" s="4">
         <v>8.653</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>10.0</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <v>40.0</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>11</v>
+      <c r="D69" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="4">
         <v>17.184</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>10.0</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>40.0</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>11</v>
+      <c r="D70" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="3">
+        <v>26</v>
+      </c>
+      <c r="F70" s="4">
         <v>9.453</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>10.0</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="5">
         <v>43376.0</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <v>0.0</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="4">
         <v>2.914</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -3751,59 +4422,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -3811,10 +4482,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6">
         <v>1.0</v>
@@ -3853,13 +4524,13 @@
         <v>-1.0</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -3867,10 +4538,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6">
         <v>0.0</v>
@@ -3909,10 +4580,10 @@
         <v>-2.0</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>31</v>
@@ -3926,7 +4597,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6">
         <v>0.0</v>
@@ -3965,10 +4636,10 @@
         <v>0.0</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>31</v>
@@ -3979,10 +4650,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6">
         <v>-2.0</v>
@@ -4035,10 +4706,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6">
         <v>0.0</v>
@@ -4077,10 +4748,10 @@
         <v>2.0</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>32</v>
@@ -4091,7 +4762,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>29</v>
@@ -4133,13 +4804,13 @@
         <v>0.0</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -4147,7 +4818,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>29</v>
@@ -4194,7 +4865,7 @@
       <c r="Q8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4245,10 +4916,10 @@
         <v>1.0</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>31</v>
@@ -4259,7 +4930,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>29</v>
@@ -4301,13 +4972,13 @@
         <v>0.0</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -4315,7 +4986,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>29</v>
@@ -4360,14 +5031,14 @@
         <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D12">
@@ -4420,52 +5091,52 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>2.0</v>
       </c>
       <c r="L15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>1.0</v>
       </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>0.0</v>
       </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>-1.0</v>
       </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>-2.0</v>
       </c>
       <c r="L19" s="7"/>
@@ -4501,78 +5172,131 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="40">
+      <c r="A1" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="52">
         <v>0.7</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="40">
+      <c r="H1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="52">
         <v>1.2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="40">
+      <c r="A2" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="52">
         <v>-0.1</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="40">
+      <c r="H2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="52">
         <v>0.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="H3" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="40">
+      <c r="H3" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="52">
         <v>0.0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="Q15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="P16" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="52">
+        <v>1.2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="P17" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="P18" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
     <row r="22">
-      <c r="A22" s="39" t="s">
-        <v>12</v>
+      <c r="A22" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1.8</v>
       </c>
-      <c r="H22" s="39" t="s">
-        <v>12</v>
+      <c r="H22" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="I22">
         <v>1.1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="39" t="s">
-        <v>84</v>
+      <c r="A23" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="B23">
         <v>1.1</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>84</v>
+      <c r="H23" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="I23">
         <v>0.4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>85</v>
+      <c r="A24" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="B24">
         <v>0.7</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>85</v>
+      <c r="H24" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="I24">
         <v>0.3</v>
@@ -4597,7 +5321,7 @@
       <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4613,7 +5337,7 @@
     </row>
     <row r="4">
       <c r="C4" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -4621,7 +5345,7 @@
     </row>
     <row r="5">
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="13" t="s">
@@ -4715,11 +5439,11 @@
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="13" t="s">
@@ -4737,7 +5461,7 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="21" t="s">
@@ -4761,7 +5485,7 @@
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="20">
@@ -4781,7 +5505,7 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="20">
@@ -4823,7 +5547,7 @@
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="20">
@@ -4843,7 +5567,7 @@
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="20">
@@ -4885,7 +5609,7 @@
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="20">
@@ -4905,7 +5629,7 @@
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="20">
@@ -4962,11 +5686,11 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
@@ -4984,7 +5708,7 @@
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="21" t="s">
@@ -5008,7 +5732,7 @@
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="20">
@@ -5028,7 +5752,7 @@
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="20">
@@ -5070,7 +5794,7 @@
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="20">
@@ -5090,7 +5814,7 @@
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="20">
@@ -5132,7 +5856,7 @@
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="20">
@@ -5152,7 +5876,7 @@
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="20">
@@ -5204,7 +5928,7 @@
     </row>
     <row r="39">
       <c r="C39" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -5214,7 +5938,7 @@
     </row>
     <row r="40">
       <c r="C40" s="27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="27" t="s">
@@ -5324,7 +6048,7 @@
     </row>
     <row r="50">
       <c r="C50" s="27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -5334,7 +6058,7 @@
     </row>
     <row r="51">
       <c r="C51" s="27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="27" t="s">
@@ -5488,7 +6212,7 @@
     </row>
     <row r="66">
       <c r="A66" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="17">
@@ -5518,7 +6242,7 @@
     </row>
     <row r="67">
       <c r="A67" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="20">
@@ -5653,7 +6377,7 @@
     </row>
     <row r="73">
       <c r="A73" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="17">
@@ -5683,7 +6407,7 @@
     </row>
     <row r="74">
       <c r="A74" s="24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="20">
@@ -5788,7 +6512,7 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="13" t="s">
@@ -5802,7 +6526,7 @@
     </row>
     <row r="83">
       <c r="A83" s="21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B83" s="33"/>
       <c r="C83" s="17">
@@ -5857,7 +6581,7 @@
     </row>
     <row r="88">
       <c r="A88" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="13" t="s">
@@ -5885,7 +6609,7 @@
     </row>
     <row r="90">
       <c r="A90" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="20">
@@ -5899,7 +6623,7 @@
     </row>
     <row r="91">
       <c r="A91" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="20">
@@ -5972,7 +6696,7 @@
     </row>
     <row r="98">
       <c r="A98" s="21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="24" t="s">
@@ -6039,7 +6763,7 @@
       </c>
       <c r="B102" s="33"/>
       <c r="C102" s="21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="17">
@@ -6063,7 +6787,7 @@
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D103" s="34"/>
       <c r="E103" s="20">
@@ -6085,11 +6809,11 @@
     </row>
     <row r="104">
       <c r="A104" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B104" s="34"/>
       <c r="C104" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="20">
@@ -6148,7 +6872,7 @@
     </row>
     <row r="108">
       <c r="A108" s="21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B108" s="33"/>
       <c r="C108" s="21" t="s">
@@ -6215,7 +6939,7 @@
       </c>
       <c r="B112" s="36"/>
       <c r="C112" s="21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D112" s="36"/>
       <c r="E112" s="17">
@@ -6239,7 +6963,7 @@
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D113" s="37"/>
       <c r="E113" s="20">
@@ -6261,11 +6985,11 @@
     </row>
     <row r="114">
       <c r="A114" s="24" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D114" s="37"/>
       <c r="E114" s="20">
@@ -6394,12 +7118,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>86</v>
+      <c r="A1" s="39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="12"/>
@@ -6413,326 +7137,326 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
+      <c r="A3" s="41" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="43" t="s">
-        <v>7</v>
+      <c r="C3" s="41" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="41" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="41" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="14"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44" t="s">
+      <c r="A4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46">
+      <c r="D4" s="43"/>
+      <c r="E4" s="44">
         <v>24.26</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44">
         <v>5.89</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46">
+      <c r="H4" s="43"/>
+      <c r="I4" s="44">
         <v>10.0</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="50">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48">
         <v>16.12</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="50">
+      <c r="F5" s="46"/>
+      <c r="G5" s="48">
         <v>5.554</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="50">
+      <c r="H5" s="46"/>
+      <c r="I5" s="48">
         <v>10.0</v>
       </c>
-      <c r="J5" s="48"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="50">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48">
         <v>15.12</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="50">
+      <c r="F6" s="46"/>
+      <c r="G6" s="48">
         <v>4.797</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="50">
+      <c r="H6" s="46"/>
+      <c r="I6" s="48">
         <v>10.0</v>
       </c>
-      <c r="J6" s="48"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="48"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50">
+      <c r="D8" s="46"/>
+      <c r="E8" s="48">
         <v>18.83</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50">
+      <c r="F8" s="46"/>
+      <c r="G8" s="48">
         <v>5.059</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="50">
+      <c r="H8" s="46"/>
+      <c r="I8" s="48">
         <v>10.0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="50">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="48">
         <v>18.3</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="50">
+      <c r="F9" s="46"/>
+      <c r="G9" s="48">
         <v>4.832</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="50">
+      <c r="H9" s="46"/>
+      <c r="I9" s="48">
         <v>10.0</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="50">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="48">
         <v>19.65</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="50">
+      <c r="F10" s="46"/>
+      <c r="G10" s="48">
         <v>6.494</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50">
+      <c r="H10" s="46"/>
+      <c r="I10" s="48">
         <v>10.0</v>
       </c>
-      <c r="J10" s="48"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="48"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="50">
+      <c r="D12" s="46"/>
+      <c r="E12" s="48">
         <v>21.55</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="50">
+      <c r="F12" s="46"/>
+      <c r="G12" s="48">
         <v>6.027</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="50">
+      <c r="H12" s="46"/>
+      <c r="I12" s="48">
         <v>20.0</v>
       </c>
-      <c r="J12" s="48"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="50">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="48">
         <v>17.21</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="50">
+      <c r="F13" s="46"/>
+      <c r="G13" s="48">
         <v>5.188</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="50">
+      <c r="H13" s="46"/>
+      <c r="I13" s="48">
         <v>20.0</v>
       </c>
-      <c r="J13" s="48"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="50">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="48">
         <v>17.39</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="50">
+      <c r="F14" s="46"/>
+      <c r="G14" s="48">
         <v>6.024</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="50">
+      <c r="H14" s="46"/>
+      <c r="I14" s="48">
         <v>20.0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="48"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="48"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="48"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="50">
+      <c r="D19" s="46"/>
+      <c r="E19" s="48">
         <v>4.746</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="50">
+      <c r="F19" s="46"/>
+      <c r="G19" s="48">
         <v>2.08</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="50">
+      <c r="H19" s="46"/>
+      <c r="I19" s="48">
         <v>10.0</v>
       </c>
-      <c r="J19" s="48"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="51"/>
+      <c r="A22" s="49"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="12"/>
@@ -6746,280 +7470,280 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="43" t="s">
-        <v>6</v>
+      <c r="A24" s="41" t="s">
+        <v>3</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="43" t="s">
-        <v>7</v>
+      <c r="C24" s="41" t="s">
+        <v>4</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="41" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="41" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="41" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="44" t="s">
+      <c r="A25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46">
+      <c r="D25" s="43"/>
+      <c r="E25" s="44">
         <v>3.5</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46">
+      <c r="F25" s="43"/>
+      <c r="G25" s="44">
         <v>2.224</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46">
+      <c r="H25" s="43"/>
+      <c r="I25" s="44">
         <v>10.0</v>
       </c>
-      <c r="J25" s="45"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="50">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="48">
         <v>3.0</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50">
+      <c r="F26" s="46"/>
+      <c r="G26" s="48">
         <v>3.496</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="50">
+      <c r="H26" s="46"/>
+      <c r="I26" s="48">
         <v>10.0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="50">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="48">
         <v>0.9</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="50">
+      <c r="F27" s="46"/>
+      <c r="G27" s="48">
         <v>1.197</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="50">
+      <c r="H27" s="46"/>
+      <c r="I27" s="48">
         <v>10.0</v>
       </c>
-      <c r="J27" s="48"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="J28" s="48"/>
+      <c r="D28" s="46"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="50">
+      <c r="D29" s="46"/>
+      <c r="E29" s="48">
         <v>3.7</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="50">
+      <c r="F29" s="46"/>
+      <c r="G29" s="48">
         <v>3.653</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="50">
+      <c r="H29" s="46"/>
+      <c r="I29" s="48">
         <v>10.0</v>
       </c>
-      <c r="J29" s="48"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="50">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="48">
         <v>2.7</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="50">
+      <c r="F30" s="46"/>
+      <c r="G30" s="48">
         <v>1.567</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="50">
+      <c r="H30" s="46"/>
+      <c r="I30" s="48">
         <v>10.0</v>
       </c>
-      <c r="J30" s="48"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="50">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="48">
         <v>1.2</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="50">
+      <c r="F31" s="46"/>
+      <c r="G31" s="48">
         <v>1.814</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="50">
+      <c r="H31" s="46"/>
+      <c r="I31" s="48">
         <v>10.0</v>
       </c>
-      <c r="J31" s="48"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="J32" s="48"/>
+      <c r="D32" s="46"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="50">
+      <c r="D33" s="46"/>
+      <c r="E33" s="48">
         <v>3.6</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="50">
+      <c r="F33" s="46"/>
+      <c r="G33" s="48">
         <v>2.945</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="50">
+      <c r="H33" s="46"/>
+      <c r="I33" s="48">
         <v>20.0</v>
       </c>
-      <c r="J33" s="48"/>
+      <c r="J33" s="46"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="50">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="48">
         <v>2.85</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="50">
+      <c r="F34" s="46"/>
+      <c r="G34" s="48">
         <v>2.641</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="50">
+      <c r="H34" s="46"/>
+      <c r="I34" s="48">
         <v>20.0</v>
       </c>
-      <c r="J34" s="48"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="50">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="48">
         <v>1.05</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50">
+      <c r="F35" s="46"/>
+      <c r="G35" s="48">
         <v>1.504</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="50">
+      <c r="H35" s="46"/>
+      <c r="I35" s="48">
         <v>20.0</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="48"/>
+      <c r="D36" s="46"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="48"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="48"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="46"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="48"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="50">
+      <c r="D40" s="46"/>
+      <c r="E40" s="48">
         <v>0.0</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="50">
+      <c r="F40" s="46"/>
+      <c r="G40" s="48">
         <v>0.0</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="50">
+      <c r="H40" s="46"/>
+      <c r="I40" s="48">
         <v>10.0</v>
       </c>
     </row>
@@ -7027,8 +7751,8 @@
     <row r="42" ht="14.25" customHeight="1"/>
     <row r="43" ht="14.25" customHeight="1"/>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="E44" s="3" t="s">
-        <v>87</v>
+      <c r="E44" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1"/>
@@ -7049,7 +7773,7 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="C50" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -7059,7 +7783,7 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="C51" s="27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="27" t="s">
@@ -7098,8 +7822,8 @@
       <c r="G53" s="29">
         <v>0.0</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>88</v>
+      <c r="J53" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
@@ -7174,7 +7898,7 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="C61" s="27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -7184,7 +7908,7 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="C62" s="27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="27" t="s">
@@ -8248,4 +8972,1627 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="50"/>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
+      <c r="A3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44">
+        <v>24.26</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44">
+        <v>5.89</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44">
+        <v>10.0</v>
+      </c>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48">
+        <v>16.12</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="48">
+        <v>5.554</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48">
+        <v>15.12</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="48">
+        <v>4.797</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48">
+        <v>18.83</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="48">
+        <v>5.059</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="48">
+        <v>18.3</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="48">
+        <v>4.832</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="48">
+        <v>19.65</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="48">
+        <v>6.494</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="48">
+        <v>21.55</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="48">
+        <v>6.027</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="48">
+        <v>20.0</v>
+      </c>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="48">
+        <v>17.21</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="48">
+        <v>5.188</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="48">
+        <v>20.0</v>
+      </c>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="48">
+        <v>17.39</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="48">
+        <v>6.024</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="48">
+        <v>20.0</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="48">
+        <v>4.746</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="48">
+        <v>2.08</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="49"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44">
+        <v>2.224</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44">
+        <v>10.0</v>
+      </c>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="48">
+        <v>3.0</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="48">
+        <v>3.496</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48">
+        <v>1.197</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="48">
+        <v>3.7</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="48">
+        <v>3.653</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="48">
+        <v>2.7</v>
+      </c>
+      <c r="F30" s="46"/>
+      <c r="G30" s="48">
+        <v>1.567</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" s="48">
+        <v>1.814</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="J32" s="46"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="48">
+        <v>3.6</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="48">
+        <v>2.945</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="48">
+        <v>20.0</v>
+      </c>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="48">
+        <v>2.85</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="48">
+        <v>2.641</v>
+      </c>
+      <c r="H34" s="46"/>
+      <c r="I34" s="48">
+        <v>20.0</v>
+      </c>
+      <c r="J34" s="46"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="48">
+        <v>1.504</v>
+      </c>
+      <c r="H35" s="46"/>
+      <c r="I35" s="48">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="46"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="46"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="46"/>
+      <c r="I40" s="48">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>